--- a/Results_reduced_update.xlsx
+++ b/Results_reduced_update.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zmiao\Downloads\Course\Machine Learning\Final Proj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfry\Desktop\CS522-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE924E4C-5215-4F14-AD63-76471484900B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D18B1D-BB30-46A6-AE50-781B298F97E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nn" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="21">
   <si>
     <t>Entire Dataset</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Fusion</t>
   </si>
   <si>
-    <t>BERT</t>
-  </si>
-  <si>
     <t>kNN(k = 37)</t>
   </si>
   <si>
@@ -83,6 +80,9 @@
   </si>
   <si>
     <t>kNN (k=11)</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -244,14 +244,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -356,7 +356,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$15</c:f>
+              <c:f>nn!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -435,9 +435,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -467,19 +467,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$B$17:$B$27</c:f>
+              <c:f>nn!$B$16:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -502,15 +499,12 @@
                   <c:v>69.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>69.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -606,9 +600,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -638,21 +632,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$B$3:$B$13</c:f>
+              <c:f>nn!$B$3:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>75.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -680,9 +671,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>82.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -698,7 +686,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$29</c:f>
+              <c:f>nn!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -776,15 +764,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>nn!$B$31:$B$41</c:f>
+              <c:f>nn!$B$29:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>74.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -802,15 +790,12 @@
                   <c:v>85.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1159,7 +1144,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$15</c:f>
+              <c:f>nn!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1238,9 +1223,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -1270,19 +1255,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$C$17:$C$27</c:f>
+              <c:f>nn!$C$16:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1305,15 +1287,12 @@
                   <c:v>61.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>64.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>63.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1409,9 +1388,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -1441,21 +1420,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$C$3:$C$13</c:f>
+              <c:f>nn!$C$3:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>70.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1483,9 +1459,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>66.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1501,7 +1474,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$29</c:f>
+              <c:f>nn!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1579,15 +1552,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>nn!$C$31:$C$41</c:f>
+              <c:f>nn!$C$29:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>70.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>72.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1605,15 +1578,12 @@
                   <c:v>51.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>70.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1962,7 +1932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$15</c:f>
+              <c:f>nn!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2041,9 +2011,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -2073,19 +2043,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$D$17:$D$27</c:f>
+              <c:f>nn!$D$16:$D$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2108,15 +2075,12 @@
                   <c:v>65.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2212,9 +2176,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -2244,21 +2208,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$D$3:$D$13</c:f>
+              <c:f>nn!$D$3:$D$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>72.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2286,9 +2247,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>73.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2304,7 +2262,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$29</c:f>
+              <c:f>nn!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2382,15 +2340,15 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>nn!$D$31:$D$41</c:f>
+              <c:f>nn!$D$29:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>73.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2408,15 +2366,12 @@
                   <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2765,7 +2720,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$15</c:f>
+              <c:f>nn!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2844,9 +2799,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -2876,19 +2831,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$F$17:$F$27</c:f>
+              <c:f>nn!$F$16:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2911,15 +2863,12 @@
                   <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3015,9 +2964,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -3047,21 +2996,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$F$3:$F$13</c:f>
+              <c:f>nn!$F$3:$F$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>49.854999999999997</c:v>
+                  <c:v>23.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -3089,9 +3035,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3107,7 +3050,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$29</c:f>
+              <c:f>nn!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3185,18 +3128,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>nn!$F$31:$F$41</c:f>
+              <c:f>nn!$F$29:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3541.79</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4528.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>174.39</c:v>
@@ -3211,15 +3154,12 @@
                   <c:v>22.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>326.77999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3576,7 +3516,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$15</c:f>
+              <c:f>nn!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3610,7 +3550,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3655,9 +3595,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -3687,19 +3627,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$E$17:$E$27</c:f>
+              <c:f>nn!$E$16:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3722,15 +3659,12 @@
                   <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3781,7 +3715,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3826,9 +3760,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>nn!$A$3:$A$13</c:f>
+              <c:f>nn!$A$3:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>MPP - Case 1</c:v>
                 </c:pt>
@@ -3858,19 +3792,16 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Fusion</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>BERT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>nn!$E$3:$E$13</c:f>
+              <c:f>nn!$E$3:$E$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>77.3</c:v>
                 </c:pt>
@@ -3900,9 +3831,6 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>79.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3918,7 +3846,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>nn!$B$29</c:f>
+              <c:f>nn!$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3952,7 +3880,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3996,18 +3924,18 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>nn!$E$31:$E$41</c:f>
+              <c:f>nn!$E$29:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>77.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>77</c:v>
@@ -4022,15 +3950,12 @@
                   <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7005,7 +6930,7 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7037,13 +6962,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7075,13 +7000,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7113,13 +7038,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>106</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7150,15 +7075,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>72887</xdr:rowOff>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53009</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>106018</xdr:rowOff>
+      <xdr:colOff>930089</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7446,24 +7371,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189D2320-27A0-4CED-A21B-3B72008CCA89}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -7485,59 +7410,59 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>0</v>
+        <v>75.3</v>
       </c>
       <c r="C3" s="4">
-        <v>0</v>
+        <v>70.3</v>
       </c>
       <c r="D3" s="4">
-        <v>0</v>
+        <v>72.7</v>
       </c>
       <c r="E3" s="4">
         <v>77.3</v>
       </c>
       <c r="F3" s="4">
-        <v>49.854999999999997</v>
+        <v>23.07</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -7660,8 +7585,8 @@
         <v>5.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="4">
@@ -7680,307 +7605,307 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1">
-      <c r="A13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="15" thickBot="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>5</v>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
+      <c r="A17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>63.8</v>
       </c>
       <c r="D19" s="4">
-        <v>0</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E19" s="4">
-        <v>0</v>
+        <v>72.8</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4">
-        <v>70.2</v>
+        <v>68</v>
       </c>
       <c r="C20" s="4">
-        <v>63.8</v>
+        <v>66.2</v>
       </c>
       <c r="D20" s="4">
-        <v>66.900000000000006</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="E20" s="4">
-        <v>72.8</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F20" s="4">
-        <v>0.1067</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4">
-        <v>68</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="C21" s="4">
         <v>66.2</v>
       </c>
       <c r="D21" s="4">
-        <v>67.099999999999994</v>
+        <v>67</v>
       </c>
       <c r="E21" s="4">
-        <v>72.099999999999994</v>
+        <v>72</v>
       </c>
       <c r="F21" s="4">
-        <v>4.2000000000000003E-2</v>
+        <v>1.3009999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4">
-        <v>67.900000000000006</v>
+        <v>69.8</v>
       </c>
       <c r="C22" s="4">
-        <v>66.2</v>
+        <v>61.8</v>
       </c>
       <c r="D22" s="4">
-        <v>67</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="E22" s="4">
-        <v>72</v>
+        <v>72.099999999999994</v>
       </c>
       <c r="F22" s="4">
-        <v>1.3009999999999999</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4">
-        <v>69.8</v>
+        <v>69.3</v>
       </c>
       <c r="C23" s="4">
-        <v>61.8</v>
+        <v>64.7</v>
       </c>
       <c r="D23" s="4">
-        <v>65.599999999999994</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="E23" s="4">
-        <v>72.099999999999994</v>
+        <v>72.5</v>
       </c>
       <c r="F23" s="4">
-        <v>0.17599999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C24" s="4">
+        <v>63.8</v>
+      </c>
+      <c r="D24" s="4">
+        <v>66.7</v>
+      </c>
+      <c r="E24" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A25" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
         <v>0</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F25" s="4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="4">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="C25" s="4">
-        <v>63.8</v>
-      </c>
-      <c r="D25" s="4">
-        <v>66.7</v>
-      </c>
-      <c r="E25" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F25" s="4">
-        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="4">
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0</v>
-      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1">
-      <c r="A27" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4">
-        <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="4">
-        <v>0</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0</v>
-      </c>
+    <row r="27" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B27" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C29" s="4">
+        <v>70.3</v>
+      </c>
+      <c r="D29" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E29" s="4">
+        <v>77.2</v>
+      </c>
+      <c r="F29" s="4">
+        <v>0.77200000000000002</v>
+      </c>
     </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>5</v>
+    <row r="30" spans="1:6">
+      <c r="A30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <v>74.3</v>
+      </c>
+      <c r="C30" s="4">
+        <v>72.3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>73.3</v>
+      </c>
+      <c r="E30" s="4">
+        <v>77.5</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3541.79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>6</v>
+      <c r="A31" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B31" s="4">
         <v>0</v>
@@ -7992,135 +7917,135 @@
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>4528.62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B32" s="4">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="C32" s="4">
-        <v>0</v>
+        <v>59.1</v>
       </c>
       <c r="D32" s="4">
-        <v>0</v>
+        <v>68.8</v>
       </c>
       <c r="E32" s="4">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>174.39</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4">
-        <v>0</v>
+        <v>36.6</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="E33" s="4">
-        <v>0</v>
+        <v>55.3</v>
       </c>
       <c r="F33" s="4">
-        <v>0</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4">
-        <v>82.5</v>
+        <v>0</v>
       </c>
       <c r="C34" s="4">
-        <v>59.1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="4">
-        <v>68.8</v>
+        <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="F34" s="4">
-        <v>174.39</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B35" s="4">
-        <v>36.6</v>
+        <v>85.9</v>
       </c>
       <c r="C35" s="4">
-        <v>5.6</v>
+        <v>51.1</v>
       </c>
       <c r="D35" s="4">
-        <v>9.6999999999999993</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="E35" s="4">
-        <v>55.3</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F35" s="4">
-        <v>2.73</v>
+        <v>22.15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B36" s="4">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="C36" s="4">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="D36" s="4">
-        <v>0</v>
+        <v>73.7</v>
       </c>
       <c r="E36" s="4">
-        <v>57</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="F36" s="4">
-        <v>4.07</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B37" s="4">
-        <v>85.9</v>
+        <v>82.4</v>
       </c>
       <c r="C37" s="4">
-        <v>51.1</v>
+        <v>69.5</v>
       </c>
       <c r="D37" s="4">
-        <v>64.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="E37" s="4">
-        <v>75.400000000000006</v>
+        <v>80.5</v>
       </c>
       <c r="F37" s="4">
-        <v>22.15</v>
+        <v>326.77999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="5" t="s">
-        <v>13</v>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A38" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="B38" s="4">
         <v>0</v>
@@ -8138,77 +8063,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="4">
-        <v>82.4</v>
-      </c>
-      <c r="C39" s="4">
-        <v>69.5</v>
-      </c>
-      <c r="D39" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="E39" s="4">
-        <v>80.5</v>
-      </c>
-      <c r="F39" s="4">
-        <v>326.77999999999997</v>
-      </c>
+    <row r="40" spans="1:6">
+      <c r="B40" s="8"/>
     </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="4">
-        <v>0</v>
-      </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-      <c r="D40" s="4">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1">
-      <c r="A41" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" s="4">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-      <c r="D41" s="4">
-        <v>0</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="10"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="10"/>
+    <row r="41" spans="1:6">
+      <c r="B41" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Results_reduced_update.xlsx
+++ b/Results_reduced_update.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfry\Desktop\CS522-Final-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D18B1D-BB30-46A6-AE50-781B298F97E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18930" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="nn" sheetId="2" r:id="rId1"/>
@@ -46,6 +40,9 @@
     <t>MPP - Case 2</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>MPP - Case 3</t>
   </si>
   <si>
@@ -70,10 +67,10 @@
     <t>Fusion</t>
   </si>
   <si>
-    <t>kNN(k = 37)</t>
+    <t>FLD Dataset</t>
   </si>
   <si>
-    <t>FLD Dataset</t>
+    <t>kNN(k = 37)</t>
   </si>
   <si>
     <t>PCA Dataset</t>
@@ -81,15 +78,18 @@
   <si>
     <t>kNN (k=11)</t>
   </si>
-  <si>
-    <t>nan</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,18 +124,348 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -217,12 +547,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -241,39 +816,80 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -315,6 +931,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -323,26 +940,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -402,7 +999,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -415,6 +1011,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -493,7 +1090,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>69.8</c:v>
@@ -502,7 +1099,7 @@
                   <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.900000000000006</c:v>
+                  <c:v>69.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -510,11 +1107,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D6EC-4ED5-8133-46476E33EA72}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -567,7 +1159,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -580,6 +1171,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -661,7 +1253,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.400000000000006</c:v>
+                  <c:v>81.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>76.7</c:v>
@@ -675,11 +1267,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D6EC-4ED5-8133-46476E33EA72}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -732,9 +1319,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -744,6 +1331,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -769,7 +1357,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.099999999999994</c:v>
+                  <c:v>75.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74.3</c:v>
@@ -796,16 +1384,11 @@
                   <c:v>82.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>70.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F7D-4E70-9324-1EA9AFA41B02}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -861,7 +1444,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -915,9 +1497,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Precision (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -926,26 +1510,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -975,7 +1539,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -992,6 +1555,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1017,7 +1581,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1047,7 +1610,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1059,9 +1621,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1103,6 +1665,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1111,26 +1674,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1190,7 +1733,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1203,6 +1745,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1298,11 +1841,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-286F-44C6-BA2A-95AFA3FECE66}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1355,7 +1893,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1368,6 +1905,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1449,7 +1987,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>71.7</c:v>
@@ -1463,11 +2001,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-286F-44C6-BA2A-95AFA3FECE66}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1520,9 +2053,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1532,6 +2065,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1584,16 +2118,11 @@
                   <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>75.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96D7-4988-809A-FEDEB43453AF}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1649,7 +2178,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -1703,9 +2231,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Recall (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1714,26 +2244,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1763,7 +2273,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -1780,6 +2289,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1805,7 +2315,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1835,7 +2344,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1847,9 +2355,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1891,6 +2399,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1899,26 +2408,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1978,7 +2467,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1991,6 +2479,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2063,19 +2552,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.599999999999994</c:v>
+                  <c:v>65.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>66.7</c:v>
@@ -2086,11 +2575,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55C1-4FF2-98DD-70400A7B3CF4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2143,7 +2627,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2156,6 +2639,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2228,7 +2712,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>70.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.4</c:v>
@@ -2237,10 +2721,10 @@
                   <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.099999999999994</c:v>
+                  <c:v>73.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>74.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>74</c:v>
@@ -2251,11 +2735,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-55C1-4FF2-98DD-70400A7B3CF4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2308,9 +2787,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2320,6 +2799,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2345,7 +2825,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.599999999999994</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>73.3</c:v>
@@ -2357,31 +2837,26 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>9.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.099999999999994</c:v>
+                  <c:v>64.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F097-4F60-9D4E-424C89F0D4F5}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2437,7 +2912,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -2491,9 +2965,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2502,26 +2978,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2551,7 +3007,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -2568,6 +3023,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2593,7 +3049,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2623,7 +3078,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2635,9 +3089,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2679,6 +3133,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2687,26 +3142,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2766,7 +3201,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2779,6 +3213,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2854,19 +3289,19 @@
                   <c:v>0.1067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3009999999999999</c:v>
+                  <c:v>1.301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>0.176</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -2874,11 +3309,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E42F-47BB-84F0-65B483CA4975}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2931,7 +3361,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2944,6 +3373,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3025,7 +3455,7 @@
                   <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.52</c:v>
@@ -3034,16 +3464,11 @@
                   <c:v>5.69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E42F-47BB-84F0-65B483CA4975}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3096,9 +3521,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3108,6 +3533,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3133,7 +3559,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0.772</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3541.79</c:v>
@@ -3157,19 +3583,14 @@
                   <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>326.77999999999997</c:v>
+                  <c:v>326.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E96-4ACA-923C-85F53889C419}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3225,7 +3646,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -3287,9 +3707,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3298,26 +3720,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3347,7 +3749,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -3364,6 +3765,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3389,7 +3791,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3419,7 +3820,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3431,9 +3831,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3475,6 +3875,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3483,26 +3884,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3562,7 +3943,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3575,6 +3955,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3650,19 +4031,19 @@
                   <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.599999999999994</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3670,11 +4051,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9EAB-4B16-987B-7503811820FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3727,7 +4103,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3740,6 +4115,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3830,16 +4206,11 @@
                   <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.599999999999994</c:v>
+                  <c:v>79.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9EAB-4B16-987B-7503811820FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3892,9 +4263,9 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -3904,6 +4275,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3947,25 +4319,20 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>75.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9EAB-4B16-987B-7503811820FA}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4021,7 +4388,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -4075,9 +4441,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4086,26 +4454,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4135,7 +4483,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -4152,6 +4499,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4177,7 +4525,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4207,7 +4554,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6919,7 +7265,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -6933,22 +7279,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84760763-09D4-4957-BC52-373AA3FF8721}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="209550"/>
+        <a:ext cx="12351385" cy="4819650"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -6971,22 +7309,14 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E91707A-5570-408F-AFF6-3C824828E251}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="5257800"/>
+        <a:ext cx="12351385" cy="4867275"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7009,22 +7339,14 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739052D4-39E1-47D2-9E05-1CE9B5E993FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="10487025"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7047,22 +7369,14 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1779F075-B50A-4A04-9004-1CF0AACB0075}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="21288375"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7085,22 +7399,14 @@
       <xdr:row>74</xdr:row>
       <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10BE2A34-B8B0-4E6A-92BB-7A58792E7B35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="280035" y="9542780"/>
+        <a:ext cx="10281285" cy="5456555"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7365,709 +7671,709 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189D2320-27A0-4CED-A21B-3B72008CCA89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B1" s="9" t="s">
+    <row r="1" ht="16.5" spans="2:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B2" s="1" t="s">
+    <row r="2" ht="16.5" spans="2:6">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>75.3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>70.3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>72.7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>77.3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>23.07</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>20</v>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>20</v>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
         <v>82.7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>61.3</v>
       </c>
-      <c r="D6" s="4">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5">
+        <v>70.4</v>
+      </c>
+      <c r="E6" s="5">
         <v>77.8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
         <v>30.4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>4.2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>7.4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>54.7</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <v>43</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>60.1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>43</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>11.39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="C9" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D9" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
+        <v>81.4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>73.1</v>
+      </c>
+      <c r="E9" s="5">
         <v>79</v>
       </c>
-      <c r="F9" s="4">
-        <v>1.1000000000000001</v>
+      <c r="F9" s="5">
+        <v>1.1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
         <v>76.7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>71.7</v>
       </c>
-      <c r="D10" s="4">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="E10" s="5">
         <v>78.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>2.52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
         <v>85</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>65.5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>74</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>80.2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>5.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
         <v>82.6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>66.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>73.7</v>
       </c>
-      <c r="E12" s="4">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="E12" s="5">
+        <v>79.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B14" s="9" t="s">
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>20</v>
+      <c r="B16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>20</v>
+      <c r="B17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>20</v>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>70.2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>63.8</v>
       </c>
-      <c r="D19" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="E19" s="5">
         <v>72.8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0.1067</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
         <v>68</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>66.2</v>
       </c>
-      <c r="D20" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E20" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4.2000000000000003E-2</v>
+      <c r="D20" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.042</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C21" s="5">
         <v>66.2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>67</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>72</v>
       </c>
-      <c r="F21" s="4">
-        <v>1.3009999999999999</v>
+      <c r="F21" s="5">
+        <v>1.301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
         <v>69.8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>61.8</v>
       </c>
-      <c r="D22" s="4">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="E22" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.17599999999999999</v>
+      <c r="D22" s="5">
+        <v>65.6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.176</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
         <v>69.3</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>64.7</v>
       </c>
-      <c r="D23" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="E23" s="5">
         <v>72.5</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>69.9</v>
+      </c>
+      <c r="C24" s="5">
         <v>63.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>66.7</v>
       </c>
-      <c r="E24" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.8000000000000001E-2</v>
+      <c r="E24" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.048</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4">
+    <row r="25" ht="16.5" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
         <v>0</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+    <row r="26" spans="5:6">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B27" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+    <row r="27" ht="16.5" spans="2:6">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
+    <row r="28" ht="16.5" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="4">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="5">
+        <v>75.1</v>
+      </c>
+      <c r="C29" s="5">
         <v>70.3</v>
       </c>
-      <c r="D29" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="E29" s="5">
         <v>77.2</v>
       </c>
-      <c r="F29" s="4">
-        <v>0.77200000000000002</v>
+      <c r="F29" s="5">
+        <v>0.772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="5">
         <v>74.3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>72.3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>73.3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>77.5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>3541.79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
         <v>0</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>57</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>4528.62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
         <v>82.5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>59.1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>68.8</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>77</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>174.39</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="A33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5">
         <v>36.6</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>5.6</v>
       </c>
-      <c r="D33" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="5">
+        <v>9.7</v>
+      </c>
+      <c r="E33" s="5">
         <v>55.3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>2.73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="A34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
         <v>0</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>57</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>4.07</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5">
         <v>85.9</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>51.1</v>
       </c>
-      <c r="D35" s="4">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E35" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="D35" s="5">
+        <v>64.1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>75.4</v>
+      </c>
+      <c r="F35" s="5">
         <v>22.15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="A36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5">
         <v>77.5</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>70.2</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>73.7</v>
       </c>
-      <c r="E36" s="4">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="E36" s="5">
+        <v>78.4</v>
+      </c>
+      <c r="F36" s="5">
         <v>4.95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="A37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="5">
         <v>82.4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>69.5</v>
       </c>
-      <c r="D37" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="5">
+        <v>75.4</v>
+      </c>
+      <c r="E37" s="5">
         <v>80.5</v>
       </c>
-      <c r="F37" s="4">
-        <v>326.77999999999997</v>
+      <c r="F37" s="5">
+        <v>326.78</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="4">
-        <v>0</v>
-      </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4">
-        <v>0</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
+    <row r="38" ht="16.5" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5">
+        <v>70.5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>75.7</v>
+      </c>
+      <c r="D38" s="5">
+        <v>73</v>
+      </c>
+      <c r="E38" s="5">
+        <v>75.9</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.002</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="8"/>
+    <row r="40" spans="2:2">
+      <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="8"/>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8076,7 +8382,8 @@
     <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>